--- a/SurveyResponses/Using the Tor network with Android (Responses).xlsx
+++ b/SurveyResponses/Using the Tor network with Android (Responses).xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Form Responses 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="123">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Which mobile browser did you use prior to this experiment? </t>
+    <t>1. Which mobile browser did you use prior to this experiment? </t>
   </si>
   <si>
     <t>2. Which of these apps did you use during this experiment?</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Did you turn Orbot off during this experiment? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. If yes, why? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Did you use other browsers than Orfox during this experiment? </t>
+    <t>3. Did you turn Orbot off during this experiment? </t>
+  </si>
+  <si>
+    <t>4. If yes, why? </t>
+  </si>
+  <si>
+    <t>5. Did you use other browsers than Orfox during this experiment? </t>
   </si>
   <si>
     <t>6. If yes, why?</t>
@@ -46,7 +50,7 @@
     <t>8. How was your use of Orfox this week, compared to your usual browser usage?</t>
   </si>
   <si>
-    <t xml:space="preserve">9. Did you notice any connectivity issues with Orbot/Orfox? </t>
+    <t>9. Did you notice any connectivity issues with Orbot/Orfox? </t>
   </si>
   <si>
     <t>11. Knowing this, how would you rate your desire for privacy on the internet in general?</t>
@@ -55,13 +59,13 @@
     <t>12. How important is this feature for you in a mobile browser?</t>
   </si>
   <si>
-    <t xml:space="preserve">13. Do you see yourself wanting to use anonymizing applications sometime in the future? </t>
+    <t>13. Do you see yourself wanting to use anonymizing applications sometime in the future? </t>
   </si>
   <si>
     <t>14. If so, for what purpose?</t>
   </si>
   <si>
-    <t xml:space="preserve">15. What is your field of study? </t>
+    <t>15. What is your field of study? </t>
   </si>
   <si>
     <t>16. In which year of your studies are you?</t>
@@ -154,9 +158,6 @@
     <t>1. year</t>
   </si>
   <si>
-    <t>Bendik.markussen@gmail</t>
-  </si>
-  <si>
     <t>Nope</t>
   </si>
   <si>
@@ -166,15 +167,12 @@
     <t>2. Low</t>
   </si>
   <si>
-    <t xml:space="preserve">To avoid monitoring to some extent. </t>
+    <t>To avoid monitoring to some extent. </t>
   </si>
   <si>
     <t>Communication Technology</t>
   </si>
   <si>
-    <t>sindrsch@gmail.com</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -196,10 +194,7 @@
     <t>Går i 5.</t>
   </si>
   <si>
-    <t>eggjerts@stud.ntnu.no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trooooor den blokkerte reklame, og det var ganske digg </t>
+    <t>Trooooor den blokkerte reklame, og det var ganske digg </t>
   </si>
   <si>
     <t>Android standard browser</t>
@@ -215,9 +210,6 @@
   </si>
   <si>
     <t>Telematics</t>
-  </si>
-  <si>
-    <t>kristbso@stud.ntnu.no</t>
   </si>
   <si>
     <t>Missing images at nrk.no
@@ -242,9 +234,6 @@
     <t>Bachelor</t>
   </si>
   <si>
-    <t>espen.meidell@gmail.com</t>
-  </si>
-  <si>
     <t>Sometimes it didn't connect at all, otherwise it worked well
 </t>
   </si>
@@ -255,9 +244,6 @@
     <t>Mttk</t>
   </si>
   <si>
-    <t>Jostein.kjerstad@gmail.com</t>
-  </si>
-  <si>
     <t>Even if you have nothing to hide, you still lock your door at night.</t>
   </si>
   <si>
@@ -273,9 +259,6 @@
     <t>Kommunikasjonsteknologi</t>
   </si>
   <si>
-    <t>simenhaga@gmail.com</t>
-  </si>
-  <si>
     <t>Connectivity problems, It is not bad, but there is a noticeable speed difference</t>
   </si>
   <si>
@@ -286,9 +269,6 @@
   </si>
   <si>
     <t>Bachelor Informatikk</t>
-  </si>
-  <si>
-    <t>corneliusgdahling@gmail.com</t>
   </si>
   <si>
     <t>It is not as fast, and all scripts have to be manually verified (which is good or bad depending).
@@ -311,18 +291,12 @@
     <t>3. year</t>
   </si>
   <si>
-    <t>been.anders@gmail.com</t>
-  </si>
-  <si>
     <t>Less functionality due to js etc being disabled. All good, for security.</t>
   </si>
   <si>
     <t>I don't want people snooping around in my business</t>
   </si>
   <si>
-    <t>vemundd@stud.ntnu.no</t>
-  </si>
-  <si>
     <t>Lower speed</t>
   </si>
   <si>
@@ -332,10 +306,7 @@
     <t>The browser looks great, and the UI is as good as any standard mobile browser, although the web page loading is far too slow (browsing image sharing sites like imgur ie.) for daily use as a main browser. However, I would use it to access web pages where anonymity is preferable.</t>
   </si>
   <si>
-    <t>simenabelsen@hotmail.no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The browser loaded webpages a lot slower than my daily slower, and while I understand this is because of encryption, the difference was too big for me to use the browser for entertainment purposes. </t>
+    <t>The browser loaded webpages a lot slower than my daily slower, and while I understand this is because of encryption, the difference was too big for me to use the browser for entertainment purposes. </t>
   </si>
   <si>
     <t>Connectivity problems</t>
@@ -344,7 +315,7 @@
     <t>Habit, Annoying captcha when Googling</t>
   </si>
   <si>
-    <t xml:space="preserve">When using public wifi hotspots </t>
+    <t>When using public wifi hotspots </t>
   </si>
   <si>
     <t>Msc Telematics</t>
@@ -353,9 +324,6 @@
     <t>trollololol</t>
   </si>
   <si>
-    <t>hansfs@stud.ntnu.no</t>
-  </si>
-  <si>
     <t>Slightly slower, captcha @ Google</t>
   </si>
   <si>
@@ -368,15 +336,9 @@
     <t>MTKOM</t>
   </si>
   <si>
-    <t>tkskow@gmail.com</t>
-  </si>
-  <si>
     <t>Brukte den ikke så mye så tenkte ikke noe over det. Følte at den ikke funket så bra når jeg byttet tlf fra Sony Z1 til en Samsung Ace3. Samsungen er gammel og generelt veldig treg, generelt vanskelig å bruke browser på den så orket ikke styre med annerledes browser og ekstra programmer.</t>
   </si>
   <si>
-    <t>katarina.hokstad@gmail.com</t>
-  </si>
-  <si>
     <t>Firefox</t>
   </si>
   <si>
@@ -389,24 +351,18 @@
     <t>Opera</t>
   </si>
   <si>
-    <t xml:space="preserve">Lowering my big data footprint, and thus making it harder for companies to recreate my life. Also porn. </t>
+    <t>Lowering my big data footprint, and thus making it harder for companies to recreate my life. Also porn. </t>
   </si>
   <si>
     <t>Electronics</t>
   </si>
   <si>
-    <t>wiztardnor@gmail.com</t>
-  </si>
-  <si>
     <t>Well, I guess general delay, some lag and access to the dark web was the most noticeable differences.</t>
   </si>
   <si>
     <t>I do not want the increasing amount of survailance and adds based on my browsing history in the future.</t>
   </si>
   <si>
-    <t>jonandek@stud.ntnu.no</t>
-  </si>
-  <si>
     <t>The add's based on my IP address was either wrong or not visible at all.</t>
   </si>
   <si>
@@ -416,9 +372,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Emilnilsen2@hotmail.com</t>
-  </si>
-  <si>
     <t>Kunne ha vært aktuelt, men har ikke behov for det nå</t>
   </si>
   <si>
@@ -428,9 +381,6 @@
     <t>Keep up the work !</t>
   </si>
   <si>
-    <t>baanu3107 @gmail.com</t>
-  </si>
-  <si>
     <t>Litt treig i forhold til den standard browseren jeg bruker</t>
   </si>
   <si>
@@ -438,91 +388,144 @@
   </si>
   <si>
     <t>Information Security</t>
-  </si>
-  <si>
-    <t>sfm@item.ntnu.no</t>
-  </si>
-  <si>
-    <t>eakaldahl@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="M/D/YYYY\ H:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="U25" activeCellId="0" sqref="U2:U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="23" width="21.57"/>
+    <col collapsed="false" hidden="false" max="23" min="1" style="0" width="21.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -537,10 +540,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -576,7 +579,7 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -586,9 +589,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>42332.70407179398</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>42332.704071794</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -639,9 +642,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>42332.70566856481</v>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>42332.7056685648</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -688,19 +691,17 @@
       <c r="S3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>42332.707745949076</v>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>42332.7077459491</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -712,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>28</v>
@@ -721,7 +722,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>43</v>
@@ -730,10 +731,10 @@
         <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>34</v>
@@ -741,19 +742,17 @@
       <c r="S4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>42332.714796932865</v>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>42332.7147969329</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -768,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
@@ -780,7 +779,7 @@
         <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>43</v>
@@ -789,10 +788,10 @@
         <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>34</v>
@@ -801,39 +800,37 @@
         <v>35</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>42332.7242722338</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>42332.7242722338</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>41</v>
@@ -851,10 +848,10 @@
         <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>34</v>
@@ -862,19 +859,17 @@
       <c r="S6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>42332.72803296296</v>
+      <c r="W6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>42332.728032963</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -883,13 +878,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
@@ -910,29 +905,27 @@
         <v>25</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>42332.7448362963</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -960,33 +953,31 @@
         <v>29</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>42332.78822619213</v>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>42332.7882261921</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1001,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
@@ -1022,10 +1013,10 @@
         <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>46</v>
@@ -1034,15 +1025,15 @@
         <v>35</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>42332.863801921296</v>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>42332.8638019213</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -1057,7 +1048,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
@@ -1078,10 +1069,10 @@
         <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>46</v>
@@ -1089,16 +1080,14 @@
       <c r="S10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>42332.983392766204</v>
+    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>42332.9833927662</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -1107,7 +1096,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -1122,42 +1111,40 @@
         <v>29</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>42333.39546153935</v>
+      <c r="W11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>42333.3954615394</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -1169,7 +1156,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>27</v>
@@ -1190,30 +1177,28 @@
         <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>42333.398146527776</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>42333.3981465278</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -1246,33 +1231,31 @@
         <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>42333.44259777778</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>42333.4425977778</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -1284,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>27</v>
@@ -1305,45 +1288,43 @@
         <v>25</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>42333.45747784722</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>42333.4574778472</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>27</v>
@@ -1364,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>34</v>
@@ -1376,21 +1357,19 @@
         <v>35</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>42333.66918744213</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>42333.6691874421</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -1399,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>25</v>
@@ -1426,10 +1405,10 @@
         <v>24</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>34</v>
@@ -1438,21 +1417,19 @@
         <v>35</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>42334.629191562504</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>42334.6291915625</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -1476,16 +1453,16 @@
         <v>29</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>34</v>
@@ -1493,19 +1470,17 @@
       <c r="S17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>42335.35699482639</v>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>42335.3569948264</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -1517,7 +1492,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>41</v>
@@ -1535,7 +1510,7 @@
         <v>25</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>46</v>
@@ -1547,27 +1522,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>42337.58887699074</v>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>42337.5888769907</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>28</v>
@@ -1579,16 +1554,16 @@
         <v>42</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>46</v>
@@ -1596,19 +1571,17 @@
       <c r="S19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>42338.549132615735</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>42338.5491326157</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -1617,7 +1590,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>25</v>
@@ -1644,10 +1617,10 @@
         <v>25</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>34</v>
@@ -1655,19 +1628,17 @@
       <c r="S20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>42338.55045589121</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>42338.5504558912</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -1700,21 +1671,21 @@
         <v>25</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>42338.55191608796</v>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>42338.551916088</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -1747,24 +1718,22 @@
         <v>25</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>42338.56651916666</v>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>42338.5665191667</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -1776,7 +1745,7 @@
         <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>28</v>
@@ -1785,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>43</v>
@@ -1794,36 +1763,34 @@
         <v>25</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>42338.694477557874</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>42338.6944775579</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -1850,27 +1817,25 @@
         <v>25</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>42339.443268414354</v>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>42339.4432684144</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1894,31 +1859,35 @@
         <v>29</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>